--- a/Datos/Old_Format/2025/01.ENERO/RPT_GESTION_ENERGIA_ENERO_05_2025.xlsx
+++ b/Datos/Old_Format/2025/01.ENERO/RPT_GESTION_ENERGIA_ENERO_05_2025.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26015"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://edificiobancodeoccidente-my.sharepoint.com/personal/ccontrol_edificiobancodeoccidente_com_co/Documents/COMPARTIDA_CCONTROL/RPT_GESTION_DE_ENERGIA/2025/01.ENERO/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Familia\Documents\Personal\Escuela Pol. Feminista\Feministadística\GitHub\Energy\Datos\Old_Format\2025\01.ENERO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="8_{5F7F510D-C21D-4485-8849-C4423D7C77EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BA380008-31CD-458B-AF52-898AA0334B21}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC44BB47-FED3-4A55-A07D-01F94C9C3EC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{15DB0DDD-8B46-476B-962B-17A4E6906705}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="19440" windowHeight="10320" tabRatio="500" xr2:uid="{15DB0DDD-8B46-476B-962B-17A4E6906705}"/>
   </bookViews>
   <sheets>
     <sheet name="REPORTE" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="124">
   <si>
     <t>Card Number</t>
   </si>
@@ -283,18 +283,6 @@
     <t>CONTINGENCIA 35</t>
   </si>
   <si>
-    <t>Views</t>
-  </si>
-  <si>
-    <t>Sorts</t>
-  </si>
-  <si>
-    <t>Filter Management</t>
-  </si>
-  <si>
-    <t>Total:</t>
-  </si>
-  <si>
     <t>17192</t>
   </si>
   <si>
@@ -413,9 +401,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mm/yyyy\ \ h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="165" formatCode="d/mm/yyyy\ \ h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -453,8 +440,8 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
-      <name val="ARIAL"/>
-      <charset val="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -515,7 +502,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -533,9 +520,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -642,39 +626,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="156082"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E97132"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196B24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -726,7 +710,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -837,6 +821,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -845,13 +836,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -916,31 +900,11 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -950,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9E536C-6A25-4DD3-833F-6032F62BE17D}">
   <dimension ref="A1:M7022"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="0" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:M144"/>
+    <sheetView tabSelected="1" showOutlineSymbols="0" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144:XFD144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -974,7 +938,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1034,7 +998,7 @@
       <c r="A3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="3">
         <v>45662.949629629627</v>
       </c>
       <c r="C3" t="s">
@@ -1071,7 +1035,7 @@
       <c r="A4" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="3">
         <v>45662.937060185184</v>
       </c>
       <c r="C4" t="s">
@@ -1108,7 +1072,7 @@
       <c r="A5" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="3">
         <v>45662.934004629627</v>
       </c>
       <c r="C5" t="s">
@@ -1145,7 +1109,7 @@
       <c r="A6" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>45662.921840277777</v>
       </c>
       <c r="C6" t="s">
@@ -1182,7 +1146,7 @@
       <c r="A7" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>45662.913171296299</v>
       </c>
       <c r="C7" t="s">
@@ -1219,7 +1183,7 @@
       <c r="A8" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>45662.912372685183</v>
       </c>
       <c r="C8" t="s">
@@ -1254,9 +1218,9 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9" s="6">
+        <v>86</v>
+      </c>
+      <c r="B9" s="3">
         <v>45662.907465277778</v>
       </c>
       <c r="C9" t="s">
@@ -1269,7 +1233,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
         <v>40</v>
@@ -1291,9 +1255,9 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="6">
+        <v>86</v>
+      </c>
+      <c r="B10" s="3">
         <v>45662.90697916667</v>
       </c>
       <c r="C10" t="s">
@@ -1306,7 +1270,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -1328,9 +1292,9 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B11" s="6">
+        <v>86</v>
+      </c>
+      <c r="B11" s="3">
         <v>45662.90519675926</v>
       </c>
       <c r="C11" t="s">
@@ -1343,7 +1307,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s">
         <v>36</v>
@@ -1367,7 +1331,7 @@
       <c r="A12" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>45662.898680555554</v>
       </c>
       <c r="C12" t="s">
@@ -1404,7 +1368,7 @@
       <c r="A13" t="s">
         <v>80</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="3">
         <v>45662.886377314811</v>
       </c>
       <c r="C13" t="s">
@@ -1441,7 +1405,7 @@
       <c r="A14" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="3">
         <v>45662.879872685182</v>
       </c>
       <c r="C14" t="s">
@@ -1478,7 +1442,7 @@
       <c r="A15" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="3">
         <v>45662.879062499997</v>
       </c>
       <c r="C15" t="s">
@@ -1515,7 +1479,7 @@
       <c r="A16" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="3">
         <v>45662.877303240741</v>
       </c>
       <c r="C16" t="s">
@@ -1552,7 +1516,7 @@
       <c r="A17" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="3">
         <v>45662.877222222225</v>
       </c>
       <c r="C17" t="s">
@@ -1589,7 +1553,7 @@
       <c r="A18" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="3">
         <v>45662.876574074071</v>
       </c>
       <c r="C18" t="s">
@@ -1626,7 +1590,7 @@
       <c r="A19" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="3">
         <v>45662.873495370368</v>
       </c>
       <c r="C19" t="s">
@@ -1663,7 +1627,7 @@
       <c r="A20" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="3">
         <v>45662.873090277775</v>
       </c>
       <c r="C20" t="s">
@@ -1700,7 +1664,7 @@
       <c r="A21" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="3">
         <v>45662.869108796294</v>
       </c>
       <c r="C21" t="s">
@@ -1737,7 +1701,7 @@
       <c r="A22" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="3">
         <v>45662.868703703702</v>
       </c>
       <c r="C22" t="s">
@@ -1774,7 +1738,7 @@
       <c r="A23" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="3">
         <v>45662.862199074072</v>
       </c>
       <c r="C23" t="s">
@@ -1811,7 +1775,7 @@
       <c r="A24" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="3">
         <v>45662.861701388887</v>
       </c>
       <c r="C24" t="s">
@@ -1848,7 +1812,7 @@
       <c r="A25" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="3">
         <v>45662.856944444444</v>
       </c>
       <c r="C25" t="s">
@@ -1885,7 +1849,7 @@
       <c r="A26" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="3">
         <v>45662.856446759259</v>
       </c>
       <c r="C26" t="s">
@@ -1922,7 +1886,7 @@
       <c r="A27" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="3">
         <v>45662.851481481484</v>
       </c>
       <c r="C27" t="s">
@@ -1959,7 +1923,7 @@
       <c r="A28" t="s">
         <v>67</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="3">
         <v>45662.837037037039</v>
       </c>
       <c r="C28" t="s">
@@ -1996,7 +1960,7 @@
       <c r="A29" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="3">
         <v>45662.83693287037</v>
       </c>
       <c r="C29" t="s">
@@ -2033,7 +1997,7 @@
       <c r="A30" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="3">
         <v>45662.813530092593</v>
       </c>
       <c r="C30" t="s">
@@ -2070,7 +2034,7 @@
       <c r="A31" t="s">
         <v>71</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="3">
         <v>45662.797199074077</v>
       </c>
       <c r="C31" t="s">
@@ -2107,7 +2071,7 @@
       <c r="A32" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="3">
         <v>45662.795439814814</v>
       </c>
       <c r="C32" t="s">
@@ -2144,7 +2108,7 @@
       <c r="A33" t="s">
         <v>67</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="3">
         <v>45662.763298611113</v>
       </c>
       <c r="C33" t="s">
@@ -2163,7 +2127,7 @@
         <v>17</v>
       </c>
       <c r="H33" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I33" t="s">
         <v>15</v>
@@ -2181,7 +2145,7 @@
       <c r="A34" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="3">
         <v>45662.745416666665</v>
       </c>
       <c r="C34" t="s">
@@ -2218,7 +2182,7 @@
       <c r="A35" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="3">
         <v>45662.743796296294</v>
       </c>
       <c r="C35" t="s">
@@ -2255,7 +2219,7 @@
       <c r="A36" t="s">
         <v>66</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="3">
         <v>45662.736319444448</v>
       </c>
       <c r="C36" t="s">
@@ -2292,7 +2256,7 @@
       <c r="A37" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="3">
         <v>45662.730219907404</v>
       </c>
       <c r="C37" t="s">
@@ -2329,7 +2293,7 @@
       <c r="A38" t="s">
         <v>67</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="3">
         <v>45662.726851851854</v>
       </c>
       <c r="C38" t="s">
@@ -2366,7 +2330,7 @@
       <c r="A39" t="s">
         <v>66</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="3">
         <v>45662.725312499999</v>
       </c>
       <c r="C39" t="s">
@@ -2403,7 +2367,7 @@
       <c r="A40" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="3">
         <v>45662.709363425929</v>
       </c>
       <c r="C40" t="s">
@@ -2440,7 +2404,7 @@
       <c r="A41" t="s">
         <v>66</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="3">
         <v>45662.701643518521</v>
       </c>
       <c r="C41" t="s">
@@ -2477,7 +2441,7 @@
       <c r="A42" t="s">
         <v>67</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="3">
         <v>45662.653287037036</v>
       </c>
       <c r="C42" t="s">
@@ -2496,7 +2460,7 @@
         <v>17</v>
       </c>
       <c r="H42" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I42" t="s">
         <v>15</v>
@@ -2514,7 +2478,7 @@
       <c r="A43" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="3">
         <v>45662.651863425926</v>
       </c>
       <c r="C43" t="s">
@@ -2551,7 +2515,7 @@
       <c r="A44" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="3">
         <v>45662.631874999999</v>
       </c>
       <c r="C44" t="s">
@@ -2586,19 +2550,19 @@
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>103</v>
-      </c>
-      <c r="B45" s="6">
+        <v>99</v>
+      </c>
+      <c r="B45" s="3">
         <v>45662.631319444445</v>
       </c>
       <c r="C45" t="s">
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E45" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F45"/>
       <c r="G45" t="s">
@@ -2614,28 +2578,28 @@
         <v>24</v>
       </c>
       <c r="K45" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L45" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M45"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>108</v>
-      </c>
-      <c r="B46" s="6">
+        <v>104</v>
+      </c>
+      <c r="B46" s="3">
         <v>45662.631284722222</v>
       </c>
       <c r="C46" t="s">
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E46" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F46"/>
       <c r="G46" t="s">
@@ -2651,28 +2615,28 @@
         <v>24</v>
       </c>
       <c r="K46" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L46" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M46"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>113</v>
-      </c>
-      <c r="B47" s="6">
+        <v>109</v>
+      </c>
+      <c r="B47" s="3">
         <v>45662.631249999999</v>
       </c>
       <c r="C47" t="s">
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E47" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F47"/>
       <c r="G47" t="s">
@@ -2688,10 +2652,10 @@
         <v>24</v>
       </c>
       <c r="K47" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L47" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M47"/>
     </row>
@@ -2699,7 +2663,7 @@
       <c r="A48" t="s">
         <v>67</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="3">
         <v>45662.621168981481</v>
       </c>
       <c r="C48" t="s">
@@ -2736,7 +2700,7 @@
       <c r="A49" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="3">
         <v>45662.605810185189</v>
       </c>
       <c r="C49" t="s">
@@ -2773,7 +2737,7 @@
       <c r="A50" t="s">
         <v>71</v>
       </c>
-      <c r="B50" s="6">
+      <c r="B50" s="3">
         <v>45662.603402777779</v>
       </c>
       <c r="C50" t="s">
@@ -2810,7 +2774,7 @@
       <c r="A51" t="s">
         <v>81</v>
       </c>
-      <c r="B51" s="6">
+      <c r="B51" s="3">
         <v>45662.599212962959</v>
       </c>
       <c r="C51" t="s">
@@ -2845,9 +2809,9 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>92</v>
-      </c>
-      <c r="B52" s="6">
+        <v>88</v>
+      </c>
+      <c r="B52" s="3">
         <v>45662.594907407409</v>
       </c>
       <c r="C52" t="s">
@@ -2882,9 +2846,9 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>92</v>
-      </c>
-      <c r="B53" s="6">
+        <v>88</v>
+      </c>
+      <c r="B53" s="3">
         <v>45662.594236111108</v>
       </c>
       <c r="C53" t="s">
@@ -2921,7 +2885,7 @@
       <c r="A54" t="s">
         <v>80</v>
       </c>
-      <c r="B54" s="6">
+      <c r="B54" s="3">
         <v>45662.569108796299</v>
       </c>
       <c r="C54" t="s">
@@ -2956,19 +2920,19 @@
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>118</v>
-      </c>
-      <c r="B55" s="6">
+        <v>114</v>
+      </c>
+      <c r="B55" s="3">
         <v>45662.568831018521</v>
       </c>
       <c r="C55" t="s">
         <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E55" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F55"/>
       <c r="G55" t="s">
@@ -2987,7 +2951,7 @@
         <v>69</v>
       </c>
       <c r="L55" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M55"/>
     </row>
@@ -2995,7 +2959,7 @@
       <c r="A56" t="s">
         <v>80</v>
       </c>
-      <c r="B56" s="6">
+      <c r="B56" s="3">
         <v>45662.568530092591</v>
       </c>
       <c r="C56" t="s">
@@ -3032,7 +2996,7 @@
       <c r="A57" t="s">
         <v>78</v>
       </c>
-      <c r="B57" s="6">
+      <c r="B57" s="3">
         <v>45662.567164351851</v>
       </c>
       <c r="C57" t="s">
@@ -3067,16 +3031,16 @@
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>122</v>
-      </c>
-      <c r="B58" s="6">
+        <v>118</v>
+      </c>
+      <c r="B58" s="3">
         <v>45662.56590277778</v>
       </c>
       <c r="C58" t="s">
         <v>13</v>
       </c>
       <c r="D58" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E58" t="s">
         <v>70</v>
@@ -3095,25 +3059,25 @@
         <v>24</v>
       </c>
       <c r="K58" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L58" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M58"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>123</v>
-      </c>
-      <c r="B59" s="6">
+        <v>119</v>
+      </c>
+      <c r="B59" s="3">
         <v>45662.565798611111</v>
       </c>
       <c r="C59" t="s">
         <v>13</v>
       </c>
       <c r="D59" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E59" t="s">
         <v>76</v>
@@ -3135,25 +3099,25 @@
         <v>69</v>
       </c>
       <c r="L59" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M59"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>113</v>
-      </c>
-      <c r="B60" s="6">
+        <v>109</v>
+      </c>
+      <c r="B60" s="3">
         <v>45662.540729166663</v>
       </c>
       <c r="C60" t="s">
         <v>13</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F60"/>
       <c r="G60" t="s">
@@ -3169,28 +3133,28 @@
         <v>24</v>
       </c>
       <c r="K60" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L60" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M60"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>103</v>
-      </c>
-      <c r="B61" s="6">
+        <v>99</v>
+      </c>
+      <c r="B61" s="3">
         <v>45662.540324074071</v>
       </c>
       <c r="C61" t="s">
         <v>13</v>
       </c>
       <c r="D61" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E61" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F61"/>
       <c r="G61" t="s">
@@ -3206,28 +3170,28 @@
         <v>24</v>
       </c>
       <c r="K61" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L61" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M61"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>108</v>
-      </c>
-      <c r="B62" s="6">
+        <v>104</v>
+      </c>
+      <c r="B62" s="3">
         <v>45662.540034722224</v>
       </c>
       <c r="C62" t="s">
         <v>13</v>
       </c>
       <c r="D62" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E62" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F62"/>
       <c r="G62" t="s">
@@ -3243,18 +3207,18 @@
         <v>24</v>
       </c>
       <c r="K62" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L62" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M62"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>124</v>
-      </c>
-      <c r="B63" s="6">
+        <v>120</v>
+      </c>
+      <c r="B63" s="3">
         <v>45662.528761574074</v>
       </c>
       <c r="C63" t="s">
@@ -3289,19 +3253,19 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>125</v>
-      </c>
-      <c r="B64" s="6">
+        <v>121</v>
+      </c>
+      <c r="B64" s="3">
         <v>45662.527754629627</v>
       </c>
       <c r="C64" t="s">
         <v>13</v>
       </c>
       <c r="D64" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E64" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F64"/>
       <c r="G64" t="s">
@@ -3320,25 +3284,25 @@
         <v>56</v>
       </c>
       <c r="L64" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M64"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>125</v>
-      </c>
-      <c r="B65" s="6">
+        <v>121</v>
+      </c>
+      <c r="B65" s="3">
         <v>45662.52715277778</v>
       </c>
       <c r="C65" t="s">
         <v>13</v>
       </c>
       <c r="D65" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E65" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F65"/>
       <c r="G65" t="s">
@@ -3357,22 +3321,22 @@
         <v>56</v>
       </c>
       <c r="L65" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M65"/>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>122</v>
-      </c>
-      <c r="B66" s="6">
+        <v>118</v>
+      </c>
+      <c r="B66" s="3">
         <v>45662.527002314811</v>
       </c>
       <c r="C66" t="s">
         <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E66" t="s">
         <v>70</v>
@@ -3391,28 +3355,28 @@
         <v>24</v>
       </c>
       <c r="K66" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L66" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M66"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>118</v>
-      </c>
-      <c r="B67" s="6">
+        <v>114</v>
+      </c>
+      <c r="B67" s="3">
         <v>45662.522662037038</v>
       </c>
       <c r="C67" t="s">
         <v>13</v>
       </c>
       <c r="D67" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E67" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F67"/>
       <c r="G67" t="s">
@@ -3431,25 +3395,25 @@
         <v>69</v>
       </c>
       <c r="L67" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M67"/>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>126</v>
-      </c>
-      <c r="B68" s="6">
+        <v>122</v>
+      </c>
+      <c r="B68" s="3">
         <v>45662.513969907406</v>
       </c>
       <c r="C68" t="s">
         <v>13</v>
       </c>
       <c r="D68" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E68" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F68"/>
       <c r="G68" t="s">
@@ -3465,10 +3429,10 @@
         <v>24</v>
       </c>
       <c r="K68" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L68" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M68"/>
     </row>
@@ -3476,17 +3440,17 @@
       <c r="A69" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="3">
         <v>45662.513912037037</v>
       </c>
       <c r="C69" t="s">
         <v>13</v>
       </c>
       <c r="D69" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E69" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F69"/>
       <c r="G69" t="s">
@@ -3502,10 +3466,10 @@
         <v>24</v>
       </c>
       <c r="K69" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L69" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M69"/>
     </row>
@@ -3513,17 +3477,17 @@
       <c r="A70" t="s">
         <v>74</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="3">
         <v>45662.51390046296</v>
       </c>
       <c r="C70" t="s">
         <v>13</v>
       </c>
       <c r="D70" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E70" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F70"/>
       <c r="G70" t="s">
@@ -3539,10 +3503,10 @@
         <v>24</v>
       </c>
       <c r="K70" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L70" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M70"/>
     </row>
@@ -3550,7 +3514,7 @@
       <c r="A71" t="s">
         <v>67</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="3">
         <v>45662.510671296295</v>
       </c>
       <c r="C71" t="s">
@@ -3587,17 +3551,17 @@
       <c r="A72" t="s">
         <v>75</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="3">
         <v>45662.499479166669</v>
       </c>
       <c r="C72" t="s">
         <v>13</v>
       </c>
       <c r="D72" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E72" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F72"/>
       <c r="G72" t="s">
@@ -3616,7 +3580,7 @@
         <v>69</v>
       </c>
       <c r="L72" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M72"/>
     </row>
@@ -3624,7 +3588,7 @@
       <c r="A73" t="s">
         <v>67</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73" s="3">
         <v>45662.490995370368</v>
       </c>
       <c r="C73" t="s">
@@ -3661,7 +3625,7 @@
       <c r="A74" t="s">
         <v>67</v>
       </c>
-      <c r="B74" s="6">
+      <c r="B74" s="3">
         <v>45662.48097222222</v>
       </c>
       <c r="C74" t="s">
@@ -3698,7 +3662,7 @@
       <c r="A75" t="s">
         <v>67</v>
       </c>
-      <c r="B75" s="6">
+      <c r="B75" s="3">
         <v>45662.47965277778</v>
       </c>
       <c r="C75" t="s">
@@ -3733,16 +3697,16 @@
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>122</v>
-      </c>
-      <c r="B76" s="6">
+        <v>118</v>
+      </c>
+      <c r="B76" s="3">
         <v>45662.444803240738</v>
       </c>
       <c r="C76" t="s">
         <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E76" t="s">
         <v>70</v>
@@ -3761,10 +3725,10 @@
         <v>24</v>
       </c>
       <c r="K76" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L76" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M76"/>
     </row>
@@ -3772,17 +3736,17 @@
       <c r="A77" t="s">
         <v>75</v>
       </c>
-      <c r="B77" s="6">
+      <c r="B77" s="3">
         <v>45662.42087962963</v>
       </c>
       <c r="C77" t="s">
         <v>13</v>
       </c>
       <c r="D77" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E77" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F77"/>
       <c r="G77" t="s">
@@ -3801,22 +3765,22 @@
         <v>69</v>
       </c>
       <c r="L77" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M77"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>122</v>
-      </c>
-      <c r="B78" s="6">
+        <v>118</v>
+      </c>
+      <c r="B78" s="3">
         <v>45662.406168981484</v>
       </c>
       <c r="C78" t="s">
         <v>13</v>
       </c>
       <c r="D78" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E78" t="s">
         <v>70</v>
@@ -3835,25 +3799,25 @@
         <v>24</v>
       </c>
       <c r="K78" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L78" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M78"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>123</v>
-      </c>
-      <c r="B79" s="6">
+        <v>119</v>
+      </c>
+      <c r="B79" s="3">
         <v>45662.379537037035</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
       </c>
       <c r="D79" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E79" t="s">
         <v>76</v>
@@ -3875,7 +3839,7 @@
         <v>69</v>
       </c>
       <c r="L79" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M79"/>
     </row>
@@ -3883,7 +3847,7 @@
       <c r="A80" t="s">
         <v>71</v>
       </c>
-      <c r="B80" s="6">
+      <c r="B80" s="3">
         <v>45662.378321759257</v>
       </c>
       <c r="C80" t="s">
@@ -3920,7 +3884,7 @@
       <c r="A81" t="s">
         <v>71</v>
       </c>
-      <c r="B81" s="6">
+      <c r="B81" s="3">
         <v>45662.37773148148</v>
       </c>
       <c r="C81" t="s">
@@ -3955,19 +3919,19 @@
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>126</v>
-      </c>
-      <c r="B82" s="6">
+        <v>122</v>
+      </c>
+      <c r="B82" s="3">
         <v>45662.373599537037</v>
       </c>
       <c r="C82" t="s">
         <v>13</v>
       </c>
       <c r="D82" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E82" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F82"/>
       <c r="G82" t="s">
@@ -3983,18 +3947,18 @@
         <v>24</v>
       </c>
       <c r="K82" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L82" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="M82"/>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>124</v>
-      </c>
-      <c r="B83" s="6">
+        <v>120</v>
+      </c>
+      <c r="B83" s="3">
         <v>45662.373159722221</v>
       </c>
       <c r="C83" t="s">
@@ -4008,7 +3972,7 @@
       </c>
       <c r="F83"/>
       <c r="G83" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H83" t="s">
         <v>60</v>
@@ -4031,7 +3995,7 @@
       <c r="A84" t="s">
         <v>67</v>
       </c>
-      <c r="B84" s="6">
+      <c r="B84" s="3">
         <v>45662.363194444442</v>
       </c>
       <c r="C84" t="s">
@@ -4050,7 +4014,7 @@
         <v>17</v>
       </c>
       <c r="H84" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I84" t="s">
         <v>15</v>
@@ -4066,9 +4030,9 @@
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>124</v>
-      </c>
-      <c r="B85" s="6">
+        <v>120</v>
+      </c>
+      <c r="B85" s="3">
         <v>45662.362835648149</v>
       </c>
       <c r="C85" t="s">
@@ -4105,7 +4069,7 @@
       <c r="A86" t="s">
         <v>67</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B86" s="3">
         <v>45662.362592592595</v>
       </c>
       <c r="C86" t="s">
@@ -4142,7 +4106,7 @@
       <c r="A87" t="s">
         <v>71</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B87" s="3">
         <v>45662.361712962964</v>
       </c>
       <c r="C87" t="s">
@@ -4179,7 +4143,7 @@
       <c r="A88" t="s">
         <v>71</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B88" s="3">
         <v>45662.360706018517</v>
       </c>
       <c r="C88" t="s">
@@ -4216,17 +4180,17 @@
       <c r="A89" t="s">
         <v>75</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B89" s="3">
         <v>45662.360543981478</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E89" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F89"/>
       <c r="G89" t="s">
@@ -4245,22 +4209,22 @@
         <v>69</v>
       </c>
       <c r="L89" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="M89"/>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>122</v>
-      </c>
-      <c r="B90" s="6">
+        <v>118</v>
+      </c>
+      <c r="B90" s="3">
         <v>45662.360243055555</v>
       </c>
       <c r="C90" t="s">
         <v>13</v>
       </c>
       <c r="D90" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E90" t="s">
         <v>70</v>
@@ -4279,10 +4243,10 @@
         <v>24</v>
       </c>
       <c r="K90" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="L90" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="M90"/>
     </row>
@@ -4290,17 +4254,17 @@
       <c r="A91" t="s">
         <v>74</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B91" s="3">
         <v>45662.342511574076</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
       </c>
       <c r="D91" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E91" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F91"/>
       <c r="G91" t="s">
@@ -4316,28 +4280,28 @@
         <v>24</v>
       </c>
       <c r="K91" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="L91" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="M91"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>125</v>
-      </c>
-      <c r="B92" s="6">
+        <v>121</v>
+      </c>
+      <c r="B92" s="3">
         <v>45662.337962962964</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
       </c>
       <c r="D92" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E92" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="F92"/>
       <c r="G92" t="s">
@@ -4356,7 +4320,7 @@
         <v>56</v>
       </c>
       <c r="L92" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="M92"/>
     </row>
@@ -4364,17 +4328,17 @@
       <c r="A93" t="s">
         <v>73</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B93" s="3">
         <v>45662.337546296294</v>
       </c>
       <c r="C93" t="s">
         <v>13</v>
       </c>
       <c r="D93" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E93" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F93"/>
       <c r="G93" t="s">
@@ -4390,10 +4354,10 @@
         <v>24</v>
       </c>
       <c r="K93" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L93" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="M93"/>
     </row>
@@ -4401,7 +4365,7 @@
       <c r="A94" t="s">
         <v>67</v>
       </c>
-      <c r="B94" s="6">
+      <c r="B94" s="3">
         <v>45662.328379629631</v>
       </c>
       <c r="C94" t="s">
@@ -4438,7 +4402,7 @@
       <c r="A95" t="s">
         <v>67</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95" s="3">
         <v>45662.328333333331</v>
       </c>
       <c r="C95" t="s">
@@ -4475,7 +4439,7 @@
       <c r="A96" t="s">
         <v>67</v>
       </c>
-      <c r="B96" s="6">
+      <c r="B96" s="3">
         <v>45662.327789351853</v>
       </c>
       <c r="C96" t="s">
@@ -4510,9 +4474,9 @@
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>124</v>
-      </c>
-      <c r="B97" s="6">
+        <v>120</v>
+      </c>
+      <c r="B97" s="3">
         <v>45662.323854166665</v>
       </c>
       <c r="C97" t="s">
@@ -4526,7 +4490,7 @@
       </c>
       <c r="F97"/>
       <c r="G97" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H97" t="s">
         <v>60</v>
@@ -4547,9 +4511,9 @@
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>124</v>
-      </c>
-      <c r="B98" s="6">
+        <v>120</v>
+      </c>
+      <c r="B98" s="3">
         <v>45662.323391203703</v>
       </c>
       <c r="C98" t="s">
@@ -4584,9 +4548,9 @@
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>90</v>
-      </c>
-      <c r="B99" s="6">
+        <v>86</v>
+      </c>
+      <c r="B99" s="3">
         <v>45662.288888888892</v>
       </c>
       <c r="C99" t="s">
@@ -4599,7 +4563,7 @@
         <v>43</v>
       </c>
       <c r="F99" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G99" t="s">
         <v>17</v>
@@ -4623,7 +4587,7 @@
       <c r="A100" t="s">
         <v>67</v>
       </c>
-      <c r="B100" s="6">
+      <c r="B100" s="3">
         <v>45662.287106481483</v>
       </c>
       <c r="C100" t="s">
@@ -4642,7 +4606,7 @@
         <v>17</v>
       </c>
       <c r="H100" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I100" t="s">
         <v>15</v>
@@ -4658,9 +4622,9 @@
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>90</v>
-      </c>
-      <c r="B101" s="6">
+        <v>86</v>
+      </c>
+      <c r="B101" s="3">
         <v>45662.280856481484</v>
       </c>
       <c r="C101" t="s">
@@ -4673,7 +4637,7 @@
         <v>43</v>
       </c>
       <c r="F101" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G101" t="s">
         <v>17</v>
@@ -4695,9 +4659,9 @@
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>90</v>
-      </c>
-      <c r="B102" s="6">
+        <v>86</v>
+      </c>
+      <c r="B102" s="3">
         <v>45662.280231481483</v>
       </c>
       <c r="C102" t="s">
@@ -4710,7 +4674,7 @@
         <v>43</v>
       </c>
       <c r="F102" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G102" t="s">
         <v>14</v>
@@ -4734,7 +4698,7 @@
       <c r="A103" t="s">
         <v>67</v>
       </c>
-      <c r="B103" s="6">
+      <c r="B103" s="3">
         <v>45662.275648148148</v>
       </c>
       <c r="C103" t="s">
@@ -4771,7 +4735,7 @@
       <c r="A104" t="s">
         <v>67</v>
       </c>
-      <c r="B104" s="6">
+      <c r="B104" s="3">
         <v>45662.274618055555</v>
       </c>
       <c r="C104" t="s">
@@ -4808,7 +4772,7 @@
       <c r="A105" t="s">
         <v>67</v>
       </c>
-      <c r="B105" s="6">
+      <c r="B105" s="3">
         <v>45662.273275462961</v>
       </c>
       <c r="C105" t="s">
@@ -4845,7 +4809,7 @@
       <c r="A106" t="s">
         <v>66</v>
       </c>
-      <c r="B106" s="6">
+      <c r="B106" s="3">
         <v>45662.27008101852</v>
       </c>
       <c r="C106" t="s">
@@ -4882,7 +4846,7 @@
       <c r="A107" t="s">
         <v>67</v>
       </c>
-      <c r="B107" s="6">
+      <c r="B107" s="3">
         <v>45662.263148148151</v>
       </c>
       <c r="C107" t="s">
@@ -4919,7 +4883,7 @@
       <c r="A108" t="s">
         <v>66</v>
       </c>
-      <c r="B108" s="6">
+      <c r="B108" s="3">
         <v>45662.260914351849</v>
       </c>
       <c r="C108" t="s">
@@ -4956,7 +4920,7 @@
       <c r="A109" t="s">
         <v>67</v>
       </c>
-      <c r="B109" s="6">
+      <c r="B109" s="3">
         <v>45662.260254629633</v>
       </c>
       <c r="C109" t="s">
@@ -4993,7 +4957,7 @@
       <c r="A110" t="s">
         <v>81</v>
       </c>
-      <c r="B110" s="6">
+      <c r="B110" s="3">
         <v>45662.260243055556</v>
       </c>
       <c r="C110" t="s">
@@ -5030,7 +4994,7 @@
       <c r="A111" t="s">
         <v>67</v>
       </c>
-      <c r="B111" s="6">
+      <c r="B111" s="3">
         <v>45662.259953703702</v>
       </c>
       <c r="C111" t="s">
@@ -5067,7 +5031,7 @@
       <c r="A112" t="s">
         <v>81</v>
       </c>
-      <c r="B112" s="6">
+      <c r="B112" s="3">
         <v>45662.259826388887</v>
       </c>
       <c r="C112" t="s">
@@ -5104,7 +5068,7 @@
       <c r="A113" t="s">
         <v>81</v>
       </c>
-      <c r="B113" s="6">
+      <c r="B113" s="3">
         <v>45662.258379629631</v>
       </c>
       <c r="C113" t="s">
@@ -5141,7 +5105,7 @@
       <c r="A114" t="s">
         <v>67</v>
       </c>
-      <c r="B114" s="6">
+      <c r="B114" s="3">
         <v>45662.257465277777</v>
       </c>
       <c r="C114" t="s">
@@ -5178,7 +5142,7 @@
       <c r="A115" t="s">
         <v>67</v>
       </c>
-      <c r="B115" s="6">
+      <c r="B115" s="3">
         <v>45662.255659722221</v>
       </c>
       <c r="C115" t="s">
@@ -5215,7 +5179,7 @@
       <c r="A116" t="s">
         <v>67</v>
       </c>
-      <c r="B116" s="6">
+      <c r="B116" s="3">
         <v>45662.252210648148</v>
       </c>
       <c r="C116" t="s">
@@ -5252,7 +5216,7 @@
       <c r="A117" t="s">
         <v>83</v>
       </c>
-      <c r="B117" s="6">
+      <c r="B117" s="3">
         <v>45662.250740740739</v>
       </c>
       <c r="C117" t="s">
@@ -5289,7 +5253,7 @@
       <c r="A118" t="s">
         <v>67</v>
       </c>
-      <c r="B118" s="6">
+      <c r="B118" s="3">
         <v>45662.248680555553</v>
       </c>
       <c r="C118" t="s">
@@ -5326,7 +5290,7 @@
       <c r="A119" t="s">
         <v>67</v>
       </c>
-      <c r="B119" s="6">
+      <c r="B119" s="3">
         <v>45662.24858796296</v>
       </c>
       <c r="C119" t="s">
@@ -5363,7 +5327,7 @@
       <c r="A120" t="s">
         <v>67</v>
       </c>
-      <c r="B120" s="6">
+      <c r="B120" s="3">
         <v>45662.248472222222</v>
       </c>
       <c r="C120" t="s">
@@ -5400,7 +5364,7 @@
       <c r="A121" t="s">
         <v>67</v>
       </c>
-      <c r="B121" s="6">
+      <c r="B121" s="3">
         <v>45662.247650462959</v>
       </c>
       <c r="C121" t="s">
@@ -5437,7 +5401,7 @@
       <c r="A122" t="s">
         <v>67</v>
       </c>
-      <c r="B122" s="6">
+      <c r="B122" s="3">
         <v>45662.24658564815</v>
       </c>
       <c r="C122" t="s">
@@ -5474,7 +5438,7 @@
       <c r="A123" t="s">
         <v>66</v>
       </c>
-      <c r="B123" s="6">
+      <c r="B123" s="3">
         <v>45662.240034722221</v>
       </c>
       <c r="C123" t="s">
@@ -5511,7 +5475,7 @@
       <c r="A124" t="s">
         <v>67</v>
       </c>
-      <c r="B124" s="6">
+      <c r="B124" s="3">
         <v>45662.237858796296</v>
       </c>
       <c r="C124" t="s">
@@ -5548,7 +5512,7 @@
       <c r="A125" t="s">
         <v>67</v>
       </c>
-      <c r="B125" s="6">
+      <c r="B125" s="3">
         <v>45662.232789351852</v>
       </c>
       <c r="C125" t="s">
@@ -5585,7 +5549,7 @@
       <c r="A126" t="s">
         <v>67</v>
       </c>
-      <c r="B126" s="6">
+      <c r="B126" s="3">
         <v>45662.232731481483</v>
       </c>
       <c r="C126" t="s">
@@ -5622,7 +5586,7 @@
       <c r="A127" t="s">
         <v>66</v>
       </c>
-      <c r="B127" s="6">
+      <c r="B127" s="3">
         <v>45662.217499999999</v>
       </c>
       <c r="C127" t="s">
@@ -5659,7 +5623,7 @@
       <c r="A128" t="s">
         <v>66</v>
       </c>
-      <c r="B128" s="6">
+      <c r="B128" s="3">
         <v>45662.212557870371</v>
       </c>
       <c r="C128" t="s">
@@ -5694,9 +5658,9 @@
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>90</v>
-      </c>
-      <c r="B129" s="6">
+        <v>86</v>
+      </c>
+      <c r="B129" s="3">
         <v>45662.173032407409</v>
       </c>
       <c r="C129" t="s">
@@ -5709,7 +5673,7 @@
         <v>43</v>
       </c>
       <c r="F129" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G129" t="s">
         <v>40</v>
@@ -5731,9 +5695,9 @@
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>90</v>
-      </c>
-      <c r="B130" s="6">
+        <v>86</v>
+      </c>
+      <c r="B130" s="3">
         <v>45662.172476851854</v>
       </c>
       <c r="C130" t="s">
@@ -5746,7 +5710,7 @@
         <v>43</v>
       </c>
       <c r="F130" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G130" t="s">
         <v>14</v>
@@ -5768,9 +5732,9 @@
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>90</v>
-      </c>
-      <c r="B131" s="6">
+        <v>86</v>
+      </c>
+      <c r="B131" s="3">
         <v>45662.168587962966</v>
       </c>
       <c r="C131" t="s">
@@ -5783,13 +5747,13 @@
         <v>43</v>
       </c>
       <c r="F131" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G131" t="s">
         <v>17</v>
       </c>
       <c r="H131" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="I131" t="s">
         <v>15</v>
@@ -5805,9 +5769,9 @@
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>90</v>
-      </c>
-      <c r="B132" s="6">
+        <v>86</v>
+      </c>
+      <c r="B132" s="3">
         <v>45662.167141203703</v>
       </c>
       <c r="C132" t="s">
@@ -5820,7 +5784,7 @@
         <v>43</v>
       </c>
       <c r="F132" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G132" t="s">
         <v>14</v>
@@ -5844,7 +5808,7 @@
       <c r="A133" t="s">
         <v>67</v>
       </c>
-      <c r="B133" s="6">
+      <c r="B133" s="3">
         <v>45662.121782407405</v>
       </c>
       <c r="C133" t="s">
@@ -5881,7 +5845,7 @@
       <c r="A134" t="s">
         <v>67</v>
       </c>
-      <c r="B134" s="6">
+      <c r="B134" s="3">
         <v>45662.121122685188</v>
       </c>
       <c r="C134" t="s">
@@ -5918,7 +5882,7 @@
       <c r="A135" t="s">
         <v>67</v>
       </c>
-      <c r="B135" s="6">
+      <c r="B135" s="3">
         <v>45662.118726851855</v>
       </c>
       <c r="C135" t="s">
@@ -5955,7 +5919,7 @@
       <c r="A136" t="s">
         <v>67</v>
       </c>
-      <c r="B136" s="6">
+      <c r="B136" s="3">
         <v>45662.114131944443</v>
       </c>
       <c r="C136" t="s">
@@ -5992,7 +5956,7 @@
       <c r="A137" t="s">
         <v>67</v>
       </c>
-      <c r="B137" s="6">
+      <c r="B137" s="3">
         <v>45662.062858796293</v>
       </c>
       <c r="C137" t="s">
@@ -6029,7 +5993,7 @@
       <c r="A138" t="s">
         <v>67</v>
       </c>
-      <c r="B138" s="6">
+      <c r="B138" s="3">
         <v>45662.053877314815</v>
       </c>
       <c r="C138" t="s">
@@ -6066,7 +6030,7 @@
       <c r="A139" t="s">
         <v>67</v>
       </c>
-      <c r="B139" s="6">
+      <c r="B139" s="3">
         <v>45662.046678240738</v>
       </c>
       <c r="C139" t="s">
@@ -6103,7 +6067,7 @@
       <c r="A140" t="s">
         <v>67</v>
       </c>
-      <c r="B140" s="6">
+      <c r="B140" s="3">
         <v>45662.046597222223</v>
       </c>
       <c r="C140" t="s">
@@ -6140,7 +6104,7 @@
       <c r="A141" t="s">
         <v>67</v>
       </c>
-      <c r="B141" s="6">
+      <c r="B141" s="3">
         <v>45662.045717592591</v>
       </c>
       <c r="C141" t="s">
@@ -6177,7 +6141,7 @@
       <c r="A142" t="s">
         <v>67</v>
       </c>
-      <c r="B142" s="6">
+      <c r="B142" s="3">
         <v>45662.045590277776</v>
       </c>
       <c r="C142" t="s">
@@ -6214,7 +6178,7 @@
       <c r="A143" t="s">
         <v>67</v>
       </c>
-      <c r="B143" s="6">
+      <c r="B143" s="3">
         <v>45662.045428240737</v>
       </c>
       <c r="C143" t="s">
@@ -6248,22 +6212,12 @@
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>86</v>
-      </c>
-      <c r="B144" t="s">
-        <v>87</v>
-      </c>
-      <c r="C144" t="s">
-        <v>88</v>
-      </c>
+      <c r="A144"/>
+      <c r="B144"/>
+      <c r="C144"/>
       <c r="D144"/>
-      <c r="E144" t="s">
-        <v>89</v>
-      </c>
-      <c r="F144" s="4">
-        <v>141</v>
-      </c>
+      <c r="E144"/>
+      <c r="F144" s="4"/>
       <c r="G144"/>
       <c r="H144"/>
       <c r="I144"/>
